--- a/2020projects/00.LEDbar/00.LEDbarBudget0NCKristianMedri.xlsx
+++ b/2020projects/00.LEDbar/00.LEDbarBudget0NCKristianMedri.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="84">
   <si>
     <t xml:space="preserve">Budget for USB connected LEDbar project</t>
   </si>
@@ -160,37 +160,22 @@
     <t xml:space="preserve">Likely needed</t>
   </si>
   <si>
+    <t xml:space="preserve">https://www.amazon.ca/CANADUINO-Compatible-Circuit-Programmer-Debugger/dp/B07B2K6ZPK</t>
+  </si>
+  <si>
     <t xml:space="preserve">STM32 development board with headers soldered</t>
   </si>
   <si>
     <t xml:space="preserve">3 pack</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.acklandsgrainger.com/en/product/O-RING-70BUNA-1X1-16/p/HBS568-022</t>
+    <t xml:space="preserve">https://www.amazon.ca/CANADUINO-STM32-Blue-Genuine-STM32F103C8T6/dp/B089T6XN42</t>
   </si>
   <si>
     <t xml:space="preserve">Universal-Solder Shipping ?</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">Universal-Solder</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve"> Tax ?</t>
-    </r>
+    <t xml:space="preserve">Universal-Solder Tax ?</t>
   </si>
   <si>
     <t xml:space="preserve">Shorting Jumper</t>
@@ -300,7 +285,7 @@
     <numFmt numFmtId="167" formatCode="\$#,##0.000"/>
     <numFmt numFmtId="168" formatCode="\$#,##0.00"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -330,12 +315,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
     <font>
       <u val="single"/>
@@ -413,51 +392,51 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -480,11 +459,11 @@
   </sheetPr>
   <dimension ref="A1:K48"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A19" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A46" activeCellId="0" sqref="A46"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A26" activeCellId="0" sqref="A26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.28125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.2890625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="57.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="18.29"/>
@@ -494,7 +473,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="15.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="12.29"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="13.7"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="14.79"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="14.8"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="39.82"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="61.58"/>
   </cols>
@@ -882,16 +861,19 @@
       <c r="I25" s="2" t="s">
         <v>45</v>
       </c>
+      <c r="J25" s="0" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B26" s="0" t="s">
         <v>44</v>
       </c>
       <c r="C26" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D26" s="2" t="n">
         <v>22.95</v>
@@ -910,12 +892,12 @@
         <v>45</v>
       </c>
       <c r="J26" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D27" s="2"/>
       <c r="E27" s="2"/>
@@ -925,7 +907,7 @@
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="4" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D28" s="2"/>
       <c r="E28" s="2"/>
@@ -942,13 +924,13 @@
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E30" s="6" t="n">
         <v>0.207</v>
@@ -962,19 +944,19 @@
         <v>0.414</v>
       </c>
       <c r="I30" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J30" s="7"/>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E31" s="6" t="n">
         <v>3.081</v>
@@ -988,16 +970,16 @@
         <v>3.081</v>
       </c>
       <c r="I31" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="J31" s="7"/>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B32" s="0" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C32" s="5"/>
       <c r="E32" s="6" t="n">
@@ -1014,24 +996,24 @@
         <v>14</v>
       </c>
       <c r="J32" s="0" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E33" s="6"/>
       <c r="G33" s="7"/>
       <c r="H33" s="7"/>
       <c r="I33" s="2"/>
       <c r="J33" s="0" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E34" s="6"/>
       <c r="G34" s="7"/>
@@ -1050,10 +1032,10 @@
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B36" s="0" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D36" s="2"/>
       <c r="E36" s="2"/>
@@ -1066,18 +1048,18 @@
       </c>
       <c r="H36" s="2"/>
       <c r="I36" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="J36" s="0" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B37" s="0" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C37" s="0" t="n">
         <v>2124</v>
@@ -1095,21 +1077,21 @@
       </c>
       <c r="H37" s="2"/>
       <c r="I37" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="J37" s="0" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="K37" s="0" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B38" s="0" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D38" s="2"/>
       <c r="E38" s="2"/>
@@ -1122,18 +1104,18 @@
       </c>
       <c r="H38" s="2"/>
       <c r="I38" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="J38" s="0" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B39" s="0" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C39" s="0" t="n">
         <v>2750</v>
@@ -1151,18 +1133,18 @@
       </c>
       <c r="H39" s="2"/>
       <c r="I39" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="J39" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B40" s="0" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D40" s="2"/>
       <c r="E40" s="2"/>
@@ -1173,12 +1155,12 @@
       <c r="H40" s="2"/>
       <c r="I40" s="2"/>
       <c r="K40" s="0" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B41" s="0" t="n">
         <v>0</v>
@@ -1191,7 +1173,7 @@
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="8" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G43" s="9" t="n">
         <f aca="false">SUM(G4:G42)</f>
@@ -1200,7 +1182,7 @@
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="8" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H44" s="9" t="n">
         <f aca="false">SUM(H4:H42)</f>
@@ -1214,7 +1196,7 @@
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="G46" s="11" t="n">
         <f aca="false">1.36*G43+H44</f>
@@ -1225,7 +1207,7 @@
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="13" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="G48" s="14" t="n">
         <f aca="false">G46</f>
